--- a/cse-seminars/cse-seminars-roster-old.xlsx
+++ b/cse-seminars/cse-seminars-roster-old.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="18380" tabRatio="500"/>
+    <workbookView xWindow="7980" yWindow="0" windowWidth="25600" windowHeight="18380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="65">
   <si>
     <t>Associate Professor</t>
   </si>
@@ -157,6 +157,63 @@
   </si>
   <si>
     <t>Lijun Chang</t>
+  </si>
+  <si>
+    <t>Aleksandar Ignjatovic</t>
+  </si>
+  <si>
+    <t>Senior Lecturer &amp; Postgrad Coursework Academic Advisor</t>
+  </si>
+  <si>
+    <t>Eric Martin</t>
+  </si>
+  <si>
+    <t>Research Fellow</t>
+  </si>
+  <si>
+    <t>Zengfeng Huang</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Scienta Professor</t>
+  </si>
+  <si>
+    <t>Boualem Benatallah</t>
+  </si>
+  <si>
+    <t>ON FRIDAY DUE TO K17_113 AVAIL.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>Senior Research Associate</t>
+  </si>
+  <si>
+    <t>Seyed-Mehdi-Reza Beheshti</t>
+  </si>
+  <si>
+    <t>Yulei Sui</t>
+  </si>
+  <si>
+    <t>Oliver Diessel</t>
+  </si>
+  <si>
+    <t>Professor &amp; Postgraduate Research and Scholarship Co-ordinator</t>
+  </si>
+  <si>
+    <t>Sri Parameswaran</t>
+  </si>
+  <si>
+    <t>Manuel Chakravarty</t>
+  </si>
+  <si>
+    <t>Ding Ye</t>
+  </si>
+  <si>
+    <t>Arcot Sowmya</t>
   </si>
 </sst>
 </file>
@@ -612,10 +669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B30" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:XFD44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -832,7 +889,7 @@
         <v>20</v>
       </c>
       <c r="C19" s="2">
-        <f>C18+7</f>
+        <f t="shared" ref="C19:C27" si="0">C18+7</f>
         <v>42495</v>
       </c>
     </row>
@@ -844,7 +901,7 @@
         <v>18</v>
       </c>
       <c r="C20" s="5">
-        <f>C19+7</f>
+        <f t="shared" si="0"/>
         <v>42502</v>
       </c>
     </row>
@@ -856,7 +913,7 @@
         <v>16</v>
       </c>
       <c r="C21" s="5">
-        <f>C20+7</f>
+        <f t="shared" si="0"/>
         <v>42509</v>
       </c>
       <c r="D21" s="8"/>
@@ -871,7 +928,7 @@
         <v>14</v>
       </c>
       <c r="C22" s="2">
-        <f>C21+7</f>
+        <f t="shared" si="0"/>
         <v>42516</v>
       </c>
     </row>
@@ -883,7 +940,7 @@
         <v>12</v>
       </c>
       <c r="C23" s="5">
-        <f>C22+7</f>
+        <f t="shared" si="0"/>
         <v>42523</v>
       </c>
     </row>
@@ -895,7 +952,7 @@
         <v>10</v>
       </c>
       <c r="C24" s="2">
-        <f>C23+7</f>
+        <f t="shared" si="0"/>
         <v>42530</v>
       </c>
     </row>
@@ -907,7 +964,7 @@
         <v>8</v>
       </c>
       <c r="C25" s="2">
-        <f>C24+7</f>
+        <f t="shared" si="0"/>
         <v>42537</v>
       </c>
     </row>
@@ -919,7 +976,7 @@
         <v>6</v>
       </c>
       <c r="C26" s="2">
-        <f>C25+7</f>
+        <f t="shared" si="0"/>
         <v>42544</v>
       </c>
       <c r="F26" s="3"/>
@@ -932,7 +989,7 @@
         <v>4</v>
       </c>
       <c r="C27" s="5">
-        <f>C26+7</f>
+        <f t="shared" si="0"/>
         <v>42551</v>
       </c>
     </row>
@@ -957,6 +1014,190 @@
       <c r="C29" s="2">
         <f>C28+7</f>
         <v>42565</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="1" customFormat="1" ht="19">
+      <c r="A30" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="2">
+        <v>42579</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="1" customFormat="1" ht="19">
+      <c r="A31" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C31" s="5">
+        <v>42600</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="1" customFormat="1" ht="19">
+      <c r="A32" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32" s="5">
+        <f>C31+7</f>
+        <v>42607</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="1" customFormat="1" ht="19">
+      <c r="A33" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="2">
+        <f>C31+14</f>
+        <v>42614</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="1" customFormat="1" ht="19">
+      <c r="A34" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="5">
+        <f>C32+14</f>
+        <v>42621</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="1" customFormat="1" ht="19">
+      <c r="A35" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="5">
+        <f>C33+14</f>
+        <v>42628</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="1" customFormat="1" ht="19">
+      <c r="A36" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="2">
+        <v>42640</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="1" customFormat="1" ht="19">
+      <c r="A37" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" s="2">
+        <v>42642</v>
+      </c>
+      <c r="E37" s="7"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="5"/>
+    </row>
+    <row r="38" spans="1:7" s="1" customFormat="1" ht="19">
+      <c r="A38" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" s="2">
+        <f>C37+7</f>
+        <v>42649</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="1" customFormat="1" ht="19">
+      <c r="A39" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" s="2">
+        <f>C38+7</f>
+        <v>42656</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="1" customFormat="1" ht="19">
+      <c r="A40" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" s="2">
+        <f>C39+7</f>
+        <v>42663</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="1" customFormat="1" ht="18">
+      <c r="C41" s="2">
+        <v>42671</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="1" customFormat="1" ht="19">
+      <c r="A42" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" s="2">
+        <f>C40+14</f>
+        <v>42677</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="1" customFormat="1" ht="19">
+      <c r="A43" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" s="2">
+        <f>C42+7</f>
+        <v>42684</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" s="1" customFormat="1" ht="19">
+      <c r="A44" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" s="2">
+        <f>C43+7</f>
+        <v>42691</v>
       </c>
     </row>
   </sheetData>
@@ -982,6 +1223,20 @@
     <hyperlink ref="A27" r:id="rId19"/>
     <hyperlink ref="A25" r:id="rId20"/>
     <hyperlink ref="A26" r:id="rId21"/>
+    <hyperlink ref="A32" r:id="rId22"/>
+    <hyperlink ref="A31" r:id="rId23"/>
+    <hyperlink ref="A35" r:id="rId24"/>
+    <hyperlink ref="A38" r:id="rId25"/>
+    <hyperlink ref="A37" r:id="rId26"/>
+    <hyperlink ref="A33" r:id="rId27"/>
+    <hyperlink ref="A34" r:id="rId28"/>
+    <hyperlink ref="A30" r:id="rId29"/>
+    <hyperlink ref="A39" r:id="rId30"/>
+    <hyperlink ref="A44" r:id="rId31"/>
+    <hyperlink ref="A43" r:id="rId32"/>
+    <hyperlink ref="A42" r:id="rId33"/>
+    <hyperlink ref="A40" r:id="rId34"/>
+    <hyperlink ref="A36" r:id="rId35"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>

--- a/cse-seminars/cse-seminars-roster-old.xlsx
+++ b/cse-seminars/cse-seminars-roster-old.xlsx
@@ -671,13 +671,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B30" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:XFD44"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="74.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" ht="19">
